--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value424.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value424.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9624597854309787</v>
+        <v>1.600824356079102</v>
       </c>
       <c r="B1">
-        <v>1.4158552825729</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>2.411697427221261</v>
+        <v>2.645496129989624</v>
       </c>
       <c r="D1">
-        <v>2.715028847856459</v>
+        <v>1.507542490959167</v>
       </c>
       <c r="E1">
-        <v>1.533600157392145</v>
+        <v>1.164753437042236</v>
       </c>
     </row>
   </sheetData>
